--- a/Data/Reports/AVON INDL LTDA.xlsx
+++ b/Data/Reports/AVON INDL LTDA.xlsx
@@ -3855,13 +3855,33 @@
       <c r="BT25" s="1" t="n"/>
     </row>
     <row r="26" ht="15.95" customHeight="1" s="18">
-      <c r="A26" s="32" t="n"/>
+      <c r="A26" s="32" t="inlineStr">
+        <is>
+          <t>00071</t>
+        </is>
+      </c>
       <c r="B26" s="32" t="n"/>
       <c r="C26" s="32" t="n"/>
-      <c r="D26" s="32" t="n"/>
-      <c r="E26" s="49" t="n"/>
-      <c r="F26" s="49" t="n"/>
-      <c r="G26" s="89" t="n"/>
+      <c r="D26" s="32" t="inlineStr">
+        <is>
+          <t>000000000235496</t>
+        </is>
+      </c>
+      <c r="E26" s="49" t="inlineStr">
+        <is>
+          <t>AVON INDL LTDA</t>
+        </is>
+      </c>
+      <c r="F26" s="49" t="inlineStr">
+        <is>
+          <t>MARCELO BASTOS DO NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="G26" s="89" t="inlineStr">
+        <is>
+          <t>7.987,24</t>
+        </is>
+      </c>
       <c r="H26" s="34" t="n"/>
       <c r="I26" s="32" t="n"/>
       <c r="J26" s="32" t="n"/>
@@ -3886,11 +3906,27 @@
       <c r="AC26" s="38" t="n"/>
       <c r="AD26" s="38" t="n"/>
       <c r="AE26" s="38" t="n"/>
-      <c r="AF26" s="90" t="n"/>
-      <c r="AG26" s="90" t="n"/>
-      <c r="AH26" s="32" t="n"/>
+      <c r="AF26" s="90" t="inlineStr">
+        <is>
+          <t>09970502215507</t>
+        </is>
+      </c>
+      <c r="AG26" s="90" t="inlineStr">
+        <is>
+          <t>00000149866</t>
+        </is>
+      </c>
+      <c r="AH26" s="32" t="inlineStr">
+        <is>
+          <t>05/06/1995</t>
+        </is>
+      </c>
       <c r="AI26" s="32" t="n"/>
-      <c r="AJ26" s="32" t="n"/>
+      <c r="AJ26" s="32" t="inlineStr">
+        <is>
+          <t>12345223695</t>
+        </is>
+      </c>
       <c r="AK26" s="32" t="n"/>
       <c r="AL26" s="32" t="n"/>
       <c r="AM26" s="32" t="n"/>
@@ -3928,13 +3964,33 @@
       <c r="BT26" s="1" t="n"/>
     </row>
     <row r="27" ht="15.95" customHeight="1" s="18">
-      <c r="A27" s="32" t="n"/>
+      <c r="A27" s="32" t="inlineStr">
+        <is>
+          <t>00064</t>
+        </is>
+      </c>
       <c r="B27" s="32" t="n"/>
       <c r="C27" s="32" t="n"/>
-      <c r="D27" s="32" t="n"/>
-      <c r="E27" s="49" t="n"/>
-      <c r="F27" s="49" t="n"/>
-      <c r="G27" s="89" t="n"/>
+      <c r="D27" s="32" t="inlineStr">
+        <is>
+          <t>000000000000068</t>
+        </is>
+      </c>
+      <c r="E27" s="49" t="inlineStr">
+        <is>
+          <t>AVON INDL LTDA</t>
+        </is>
+      </c>
+      <c r="F27" s="49" t="inlineStr">
+        <is>
+          <t>PERCI ALESSANDRO RIBEIRO</t>
+        </is>
+      </c>
+      <c r="G27" s="89" t="inlineStr">
+        <is>
+          <t>7.786,05</t>
+        </is>
+      </c>
       <c r="H27" s="34" t="n"/>
       <c r="I27" s="32" t="n"/>
       <c r="J27" s="32" t="n"/>
@@ -3959,11 +4015,27 @@
       <c r="AC27" s="38" t="n"/>
       <c r="AD27" s="38" t="n"/>
       <c r="AE27" s="38" t="n"/>
-      <c r="AF27" s="90" t="n"/>
-      <c r="AG27" s="90" t="n"/>
-      <c r="AH27" s="32" t="n"/>
+      <c r="AF27" s="90" t="inlineStr">
+        <is>
+          <t>09970502215507</t>
+        </is>
+      </c>
+      <c r="AG27" s="90" t="inlineStr">
+        <is>
+          <t>00000154274</t>
+        </is>
+      </c>
+      <c r="AH27" s="32" t="inlineStr">
+        <is>
+          <t>11/03/1991</t>
+        </is>
+      </c>
       <c r="AI27" s="32" t="n"/>
-      <c r="AJ27" s="32" t="n"/>
+      <c r="AJ27" s="32" t="inlineStr">
+        <is>
+          <t>12340560359</t>
+        </is>
+      </c>
       <c r="AK27" s="32" t="n"/>
       <c r="AL27" s="32" t="n"/>
       <c r="AM27" s="32" t="n"/>
@@ -4001,13 +4073,33 @@
       <c r="BT27" s="1" t="n"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="18">
-      <c r="A28" s="32" t="n"/>
+      <c r="A28" s="32" t="inlineStr">
+        <is>
+          <t>00004</t>
+        </is>
+      </c>
       <c r="B28" s="32" t="n"/>
       <c r="C28" s="32" t="n"/>
-      <c r="D28" s="32" t="n"/>
-      <c r="E28" s="49" t="n"/>
-      <c r="F28" s="49" t="n"/>
-      <c r="G28" s="89" t="n"/>
+      <c r="D28" s="32" t="inlineStr">
+        <is>
+          <t>000000122292012</t>
+        </is>
+      </c>
+      <c r="E28" s="49" t="inlineStr">
+        <is>
+          <t>AVON INDL LTDA</t>
+        </is>
+      </c>
+      <c r="F28" s="49" t="inlineStr">
+        <is>
+          <t>SILVANA APARECIDA CANOVA ARAUJO</t>
+        </is>
+      </c>
+      <c r="G28" s="89" t="inlineStr">
+        <is>
+          <t>8.802,15</t>
+        </is>
+      </c>
       <c r="H28" s="34" t="n"/>
       <c r="I28" s="32" t="n"/>
       <c r="J28" s="32" t="n"/>
@@ -4032,11 +4124,27 @@
       <c r="AC28" s="38" t="n"/>
       <c r="AD28" s="38" t="n"/>
       <c r="AE28" s="38" t="n"/>
-      <c r="AF28" s="90" t="n"/>
-      <c r="AG28" s="90" t="n"/>
-      <c r="AH28" s="32" t="n"/>
+      <c r="AF28" s="90" t="inlineStr">
+        <is>
+          <t>09970502215507</t>
+        </is>
+      </c>
+      <c r="AG28" s="90" t="inlineStr">
+        <is>
+          <t>00000751523</t>
+        </is>
+      </c>
+      <c r="AH28" s="32" t="inlineStr">
+        <is>
+          <t>18/07/2012</t>
+        </is>
+      </c>
       <c r="AI28" s="32" t="n"/>
-      <c r="AJ28" s="32" t="n"/>
+      <c r="AJ28" s="32" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AK28" s="32" t="n"/>
       <c r="AL28" s="32" t="n"/>
       <c r="AM28" s="32" t="n"/>
@@ -4074,13 +4182,33 @@
       <c r="BT28" s="1" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="18">
-      <c r="A29" s="32" t="n"/>
+      <c r="A29" s="32" t="inlineStr">
+        <is>
+          <t>00077</t>
+        </is>
+      </c>
       <c r="B29" s="32" t="n"/>
       <c r="C29" s="32" t="n"/>
-      <c r="D29" s="32" t="n"/>
-      <c r="E29" s="49" t="n"/>
-      <c r="F29" s="49" t="n"/>
-      <c r="G29" s="89" t="n"/>
+      <c r="D29" s="32" t="inlineStr">
+        <is>
+          <t>000000002572000</t>
+        </is>
+      </c>
+      <c r="E29" s="49" t="inlineStr">
+        <is>
+          <t>AVON INDL LTDA</t>
+        </is>
+      </c>
+      <c r="F29" s="49" t="inlineStr">
+        <is>
+          <t>WILSON BEZERRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="G29" s="89" t="inlineStr">
+        <is>
+          <t>7.325,46</t>
+        </is>
+      </c>
       <c r="H29" s="34" t="n"/>
       <c r="I29" s="32" t="n"/>
       <c r="J29" s="32" t="n"/>
@@ -4105,11 +4233,27 @@
       <c r="AC29" s="38" t="n"/>
       <c r="AD29" s="38" t="n"/>
       <c r="AE29" s="38" t="n"/>
-      <c r="AF29" s="90" t="n"/>
-      <c r="AG29" s="90" t="n"/>
-      <c r="AH29" s="32" t="n"/>
+      <c r="AF29" s="90" t="inlineStr">
+        <is>
+          <t>09970502215507</t>
+        </is>
+      </c>
+      <c r="AG29" s="90" t="inlineStr">
+        <is>
+          <t>00000246470</t>
+        </is>
+      </c>
+      <c r="AH29" s="32" t="inlineStr">
+        <is>
+          <t>02/05/1983</t>
+        </is>
+      </c>
       <c r="AI29" s="32" t="n"/>
-      <c r="AJ29" s="32" t="n"/>
+      <c r="AJ29" s="32" t="inlineStr">
+        <is>
+          <t>12010506784</t>
+        </is>
+      </c>
       <c r="AK29" s="32" t="n"/>
       <c r="AL29" s="32" t="n"/>
       <c r="AM29" s="32" t="n"/>
@@ -4147,13 +4291,33 @@
       <c r="BT29" s="1" t="n"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="18">
-      <c r="A30" s="32" t="n"/>
+      <c r="A30" s="32" t="inlineStr">
+        <is>
+          <t>00071</t>
+        </is>
+      </c>
       <c r="B30" s="32" t="n"/>
       <c r="C30" s="32" t="n"/>
-      <c r="D30" s="32" t="n"/>
-      <c r="E30" s="49" t="n"/>
-      <c r="F30" s="49" t="n"/>
-      <c r="G30" s="89" t="n"/>
+      <c r="D30" s="32" t="inlineStr">
+        <is>
+          <t>000000000235496</t>
+        </is>
+      </c>
+      <c r="E30" s="49" t="inlineStr">
+        <is>
+          <t>AVON INDL LTDA</t>
+        </is>
+      </c>
+      <c r="F30" s="49" t="inlineStr">
+        <is>
+          <t>MARCELO BASTOS DO NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="G30" s="89" t="inlineStr">
+        <is>
+          <t>7.987,24</t>
+        </is>
+      </c>
       <c r="H30" s="34" t="n"/>
       <c r="I30" s="32" t="n"/>
       <c r="J30" s="32" t="n"/>
@@ -4178,11 +4342,27 @@
       <c r="AC30" s="38" t="n"/>
       <c r="AD30" s="38" t="n"/>
       <c r="AE30" s="38" t="n"/>
-      <c r="AF30" s="90" t="n"/>
-      <c r="AG30" s="90" t="n"/>
-      <c r="AH30" s="32" t="n"/>
+      <c r="AF30" s="90" t="inlineStr">
+        <is>
+          <t>09970502215507</t>
+        </is>
+      </c>
+      <c r="AG30" s="90" t="inlineStr">
+        <is>
+          <t>00000149866</t>
+        </is>
+      </c>
+      <c r="AH30" s="32" t="inlineStr">
+        <is>
+          <t>05/06/1995</t>
+        </is>
+      </c>
       <c r="AI30" s="32" t="n"/>
-      <c r="AJ30" s="32" t="n"/>
+      <c r="AJ30" s="32" t="inlineStr">
+        <is>
+          <t>12345223695</t>
+        </is>
+      </c>
       <c r="AK30" s="32" t="n"/>
       <c r="AL30" s="32" t="n"/>
       <c r="AM30" s="32" t="n"/>
@@ -4220,13 +4400,33 @@
       <c r="BT30" s="1" t="n"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="18">
-      <c r="A31" s="32" t="n"/>
+      <c r="A31" s="32" t="inlineStr">
+        <is>
+          <t>00064</t>
+        </is>
+      </c>
       <c r="B31" s="32" t="n"/>
       <c r="C31" s="32" t="n"/>
-      <c r="D31" s="32" t="n"/>
-      <c r="E31" s="49" t="n"/>
-      <c r="F31" s="49" t="n"/>
-      <c r="G31" s="89" t="n"/>
+      <c r="D31" s="32" t="inlineStr">
+        <is>
+          <t>000000000000068</t>
+        </is>
+      </c>
+      <c r="E31" s="49" t="inlineStr">
+        <is>
+          <t>AVON INDL LTDA</t>
+        </is>
+      </c>
+      <c r="F31" s="49" t="inlineStr">
+        <is>
+          <t>PERCI ALESSANDRO RIBEIRO</t>
+        </is>
+      </c>
+      <c r="G31" s="89" t="inlineStr">
+        <is>
+          <t>7.786,05</t>
+        </is>
+      </c>
       <c r="H31" s="34" t="n"/>
       <c r="I31" s="32" t="n"/>
       <c r="J31" s="32" t="n"/>
@@ -4251,11 +4451,27 @@
       <c r="AC31" s="38" t="n"/>
       <c r="AD31" s="38" t="n"/>
       <c r="AE31" s="38" t="n"/>
-      <c r="AF31" s="90" t="n"/>
-      <c r="AG31" s="90" t="n"/>
-      <c r="AH31" s="32" t="n"/>
+      <c r="AF31" s="90" t="inlineStr">
+        <is>
+          <t>09970502215507</t>
+        </is>
+      </c>
+      <c r="AG31" s="90" t="inlineStr">
+        <is>
+          <t>00000154274</t>
+        </is>
+      </c>
+      <c r="AH31" s="32" t="inlineStr">
+        <is>
+          <t>11/03/1991</t>
+        </is>
+      </c>
       <c r="AI31" s="32" t="n"/>
-      <c r="AJ31" s="32" t="n"/>
+      <c r="AJ31" s="32" t="inlineStr">
+        <is>
+          <t>12340560359</t>
+        </is>
+      </c>
       <c r="AK31" s="32" t="n"/>
       <c r="AL31" s="32" t="n"/>
       <c r="AM31" s="32" t="n"/>
@@ -4293,13 +4509,33 @@
       <c r="BT31" s="1" t="n"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="18">
-      <c r="A32" s="32" t="n"/>
+      <c r="A32" s="32" t="inlineStr">
+        <is>
+          <t>00004</t>
+        </is>
+      </c>
       <c r="B32" s="32" t="n"/>
       <c r="C32" s="32" t="n"/>
-      <c r="D32" s="32" t="n"/>
-      <c r="E32" s="49" t="n"/>
-      <c r="F32" s="49" t="n"/>
-      <c r="G32" s="89" t="n"/>
+      <c r="D32" s="32" t="inlineStr">
+        <is>
+          <t>000000122292012</t>
+        </is>
+      </c>
+      <c r="E32" s="49" t="inlineStr">
+        <is>
+          <t>AVON INDL LTDA</t>
+        </is>
+      </c>
+      <c r="F32" s="49" t="inlineStr">
+        <is>
+          <t>SILVANA APARECIDA CANOVA ARAUJO</t>
+        </is>
+      </c>
+      <c r="G32" s="89" t="inlineStr">
+        <is>
+          <t>8.802,15</t>
+        </is>
+      </c>
       <c r="H32" s="34" t="n"/>
       <c r="I32" s="32" t="n"/>
       <c r="J32" s="32" t="n"/>
@@ -4324,11 +4560,27 @@
       <c r="AC32" s="38" t="n"/>
       <c r="AD32" s="38" t="n"/>
       <c r="AE32" s="38" t="n"/>
-      <c r="AF32" s="90" t="n"/>
-      <c r="AG32" s="90" t="n"/>
-      <c r="AH32" s="32" t="n"/>
+      <c r="AF32" s="90" t="inlineStr">
+        <is>
+          <t>09970502215507</t>
+        </is>
+      </c>
+      <c r="AG32" s="90" t="inlineStr">
+        <is>
+          <t>00000751523</t>
+        </is>
+      </c>
+      <c r="AH32" s="32" t="inlineStr">
+        <is>
+          <t>18/07/2012</t>
+        </is>
+      </c>
       <c r="AI32" s="32" t="n"/>
-      <c r="AJ32" s="32" t="n"/>
+      <c r="AJ32" s="32" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AK32" s="32" t="n"/>
       <c r="AL32" s="32" t="n"/>
       <c r="AM32" s="32" t="n"/>
@@ -4366,13 +4618,33 @@
       <c r="BT32" s="1" t="n"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="18">
-      <c r="A33" s="32" t="n"/>
+      <c r="A33" s="32" t="inlineStr">
+        <is>
+          <t>00077</t>
+        </is>
+      </c>
       <c r="B33" s="32" t="n"/>
       <c r="C33" s="32" t="n"/>
-      <c r="D33" s="32" t="n"/>
-      <c r="E33" s="49" t="n"/>
-      <c r="F33" s="49" t="n"/>
-      <c r="G33" s="89" t="n"/>
+      <c r="D33" s="32" t="inlineStr">
+        <is>
+          <t>000000002572000</t>
+        </is>
+      </c>
+      <c r="E33" s="49" t="inlineStr">
+        <is>
+          <t>AVON INDL LTDA</t>
+        </is>
+      </c>
+      <c r="F33" s="49" t="inlineStr">
+        <is>
+          <t>WILSON BEZERRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="G33" s="89" t="inlineStr">
+        <is>
+          <t>7.325,46</t>
+        </is>
+      </c>
       <c r="H33" s="34" t="n"/>
       <c r="I33" s="32" t="n"/>
       <c r="J33" s="32" t="n"/>
@@ -4397,11 +4669,27 @@
       <c r="AC33" s="38" t="n"/>
       <c r="AD33" s="38" t="n"/>
       <c r="AE33" s="38" t="n"/>
-      <c r="AF33" s="90" t="n"/>
-      <c r="AG33" s="90" t="n"/>
-      <c r="AH33" s="32" t="n"/>
+      <c r="AF33" s="90" t="inlineStr">
+        <is>
+          <t>09970502215507</t>
+        </is>
+      </c>
+      <c r="AG33" s="90" t="inlineStr">
+        <is>
+          <t>00000246470</t>
+        </is>
+      </c>
+      <c r="AH33" s="32" t="inlineStr">
+        <is>
+          <t>02/05/1983</t>
+        </is>
+      </c>
       <c r="AI33" s="32" t="n"/>
-      <c r="AJ33" s="32" t="n"/>
+      <c r="AJ33" s="32" t="inlineStr">
+        <is>
+          <t>12010506784</t>
+        </is>
+      </c>
       <c r="AK33" s="32" t="n"/>
       <c r="AL33" s="32" t="n"/>
       <c r="AM33" s="32" t="n"/>

--- a/Data/Reports/AVON INDL LTDA.xlsx
+++ b/Data/Reports/AVON INDL LTDA.xlsx
@@ -4727,13 +4727,33 @@
       <c r="BT33" s="1" t="n"/>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="18">
-      <c r="A34" s="32" t="n"/>
+      <c r="A34" s="32" t="inlineStr">
+        <is>
+          <t>00071</t>
+        </is>
+      </c>
       <c r="B34" s="32" t="n"/>
       <c r="C34" s="32" t="n"/>
-      <c r="D34" s="32" t="n"/>
-      <c r="E34" s="49" t="n"/>
-      <c r="F34" s="49" t="n"/>
-      <c r="G34" s="89" t="n"/>
+      <c r="D34" s="32" t="inlineStr">
+        <is>
+          <t>000000000235496</t>
+        </is>
+      </c>
+      <c r="E34" s="49" t="inlineStr">
+        <is>
+          <t>AVON INDL LTDA</t>
+        </is>
+      </c>
+      <c r="F34" s="49" t="inlineStr">
+        <is>
+          <t>MARCELO BASTOS DO NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="G34" s="89" t="inlineStr">
+        <is>
+          <t>7.987,24</t>
+        </is>
+      </c>
       <c r="H34" s="34" t="n"/>
       <c r="I34" s="32" t="n"/>
       <c r="J34" s="32" t="n"/>
@@ -4758,11 +4778,27 @@
       <c r="AC34" s="38" t="n"/>
       <c r="AD34" s="38" t="n"/>
       <c r="AE34" s="38" t="n"/>
-      <c r="AF34" s="90" t="n"/>
-      <c r="AG34" s="90" t="n"/>
-      <c r="AH34" s="32" t="n"/>
+      <c r="AF34" s="90" t="inlineStr">
+        <is>
+          <t>09970502215507</t>
+        </is>
+      </c>
+      <c r="AG34" s="90" t="inlineStr">
+        <is>
+          <t>00000149866</t>
+        </is>
+      </c>
+      <c r="AH34" s="32" t="inlineStr">
+        <is>
+          <t>05/06/1995</t>
+        </is>
+      </c>
       <c r="AI34" s="32" t="n"/>
-      <c r="AJ34" s="32" t="n"/>
+      <c r="AJ34" s="32" t="inlineStr">
+        <is>
+          <t>12345223695</t>
+        </is>
+      </c>
       <c r="AK34" s="32" t="n"/>
       <c r="AL34" s="32" t="n"/>
       <c r="AM34" s="32" t="n"/>
@@ -4800,13 +4836,33 @@
       <c r="BT34" s="1" t="n"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="18">
-      <c r="A35" s="32" t="n"/>
+      <c r="A35" s="32" t="inlineStr">
+        <is>
+          <t>00064</t>
+        </is>
+      </c>
       <c r="B35" s="32" t="n"/>
       <c r="C35" s="32" t="n"/>
-      <c r="D35" s="32" t="n"/>
-      <c r="E35" s="49" t="n"/>
-      <c r="F35" s="49" t="n"/>
-      <c r="G35" s="89" t="n"/>
+      <c r="D35" s="32" t="inlineStr">
+        <is>
+          <t>000000000000068</t>
+        </is>
+      </c>
+      <c r="E35" s="49" t="inlineStr">
+        <is>
+          <t>AVON INDL LTDA</t>
+        </is>
+      </c>
+      <c r="F35" s="49" t="inlineStr">
+        <is>
+          <t>PERCI ALESSANDRO RIBEIRO</t>
+        </is>
+      </c>
+      <c r="G35" s="89" t="inlineStr">
+        <is>
+          <t>7.786,05</t>
+        </is>
+      </c>
       <c r="H35" s="34" t="n"/>
       <c r="I35" s="32" t="n"/>
       <c r="J35" s="32" t="n"/>
@@ -4831,11 +4887,27 @@
       <c r="AC35" s="38" t="n"/>
       <c r="AD35" s="38" t="n"/>
       <c r="AE35" s="38" t="n"/>
-      <c r="AF35" s="90" t="n"/>
-      <c r="AG35" s="90" t="n"/>
-      <c r="AH35" s="32" t="n"/>
+      <c r="AF35" s="90" t="inlineStr">
+        <is>
+          <t>09970502215507</t>
+        </is>
+      </c>
+      <c r="AG35" s="90" t="inlineStr">
+        <is>
+          <t>00000154274</t>
+        </is>
+      </c>
+      <c r="AH35" s="32" t="inlineStr">
+        <is>
+          <t>11/03/1991</t>
+        </is>
+      </c>
       <c r="AI35" s="32" t="n"/>
-      <c r="AJ35" s="32" t="n"/>
+      <c r="AJ35" s="32" t="inlineStr">
+        <is>
+          <t>12340560359</t>
+        </is>
+      </c>
       <c r="AK35" s="32" t="n"/>
       <c r="AL35" s="32" t="n"/>
       <c r="AM35" s="32" t="n"/>
@@ -4873,13 +4945,33 @@
       <c r="BT35" s="1" t="n"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="18">
-      <c r="A36" s="32" t="n"/>
+      <c r="A36" s="32" t="inlineStr">
+        <is>
+          <t>00004</t>
+        </is>
+      </c>
       <c r="B36" s="32" t="n"/>
       <c r="C36" s="32" t="n"/>
-      <c r="D36" s="32" t="n"/>
-      <c r="E36" s="49" t="n"/>
-      <c r="F36" s="49" t="n"/>
-      <c r="G36" s="89" t="n"/>
+      <c r="D36" s="32" t="inlineStr">
+        <is>
+          <t>000000122292012</t>
+        </is>
+      </c>
+      <c r="E36" s="49" t="inlineStr">
+        <is>
+          <t>AVON INDL LTDA</t>
+        </is>
+      </c>
+      <c r="F36" s="49" t="inlineStr">
+        <is>
+          <t>SILVANA APARECIDA CANOVA ARAUJO</t>
+        </is>
+      </c>
+      <c r="G36" s="89" t="inlineStr">
+        <is>
+          <t>8.802,15</t>
+        </is>
+      </c>
       <c r="H36" s="34" t="n"/>
       <c r="I36" s="32" t="n"/>
       <c r="J36" s="32" t="n"/>
@@ -4904,11 +4996,27 @@
       <c r="AC36" s="38" t="n"/>
       <c r="AD36" s="38" t="n"/>
       <c r="AE36" s="38" t="n"/>
-      <c r="AF36" s="90" t="n"/>
-      <c r="AG36" s="90" t="n"/>
-      <c r="AH36" s="32" t="n"/>
+      <c r="AF36" s="90" t="inlineStr">
+        <is>
+          <t>09970502215507</t>
+        </is>
+      </c>
+      <c r="AG36" s="90" t="inlineStr">
+        <is>
+          <t>00000751523</t>
+        </is>
+      </c>
+      <c r="AH36" s="32" t="inlineStr">
+        <is>
+          <t>18/07/2012</t>
+        </is>
+      </c>
       <c r="AI36" s="32" t="n"/>
-      <c r="AJ36" s="32" t="n"/>
+      <c r="AJ36" s="32" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AK36" s="32" t="n"/>
       <c r="AL36" s="32" t="n"/>
       <c r="AM36" s="32" t="n"/>
@@ -4946,13 +5054,33 @@
       <c r="BT36" s="1" t="n"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="18">
-      <c r="A37" s="32" t="n"/>
+      <c r="A37" s="32" t="inlineStr">
+        <is>
+          <t>00077</t>
+        </is>
+      </c>
       <c r="B37" s="32" t="n"/>
       <c r="C37" s="32" t="n"/>
-      <c r="D37" s="32" t="n"/>
-      <c r="E37" s="49" t="n"/>
-      <c r="F37" s="49" t="n"/>
-      <c r="G37" s="89" t="n"/>
+      <c r="D37" s="32" t="inlineStr">
+        <is>
+          <t>000000002572000</t>
+        </is>
+      </c>
+      <c r="E37" s="49" t="inlineStr">
+        <is>
+          <t>AVON INDL LTDA</t>
+        </is>
+      </c>
+      <c r="F37" s="49" t="inlineStr">
+        <is>
+          <t>WILSON BEZERRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="G37" s="89" t="inlineStr">
+        <is>
+          <t>7.325,46</t>
+        </is>
+      </c>
       <c r="H37" s="34" t="n"/>
       <c r="I37" s="32" t="n"/>
       <c r="J37" s="32" t="n"/>
@@ -4977,11 +5105,27 @@
       <c r="AC37" s="38" t="n"/>
       <c r="AD37" s="38" t="n"/>
       <c r="AE37" s="38" t="n"/>
-      <c r="AF37" s="90" t="n"/>
-      <c r="AG37" s="90" t="n"/>
-      <c r="AH37" s="32" t="n"/>
+      <c r="AF37" s="90" t="inlineStr">
+        <is>
+          <t>09970502215507</t>
+        </is>
+      </c>
+      <c r="AG37" s="90" t="inlineStr">
+        <is>
+          <t>00000246470</t>
+        </is>
+      </c>
+      <c r="AH37" s="32" t="inlineStr">
+        <is>
+          <t>02/05/1983</t>
+        </is>
+      </c>
       <c r="AI37" s="32" t="n"/>
-      <c r="AJ37" s="32" t="n"/>
+      <c r="AJ37" s="32" t="inlineStr">
+        <is>
+          <t>12010506784</t>
+        </is>
+      </c>
       <c r="AK37" s="32" t="n"/>
       <c r="AL37" s="32" t="n"/>
       <c r="AM37" s="32" t="n"/>
